--- a/select_tags/tags.xlsx
+++ b/select_tags/tags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11670"/>
+    <workbookView windowWidth="17430" windowHeight="12255" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Person人物" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="3272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="3280">
   <si>
     <t>**xwwtype类型</t>
   </si>
@@ -9842,6 +9842,30 @@
   </si>
   <si>
     <t>fat, naked, nude, paintings, sketches, (worst quality:2), (low quality:2), (normal quality:2), lowres, ((monochrome)), ((grayscale)), bad anatomy, DeepNegative, lowres, bad anatomy, bad hands, text, error, missing fingers, extra digit, fewer digits, cropped, worst quality, low quality, normal quality, jpeg artifacts, signature, watermark, username, blurry, bad feet, cropped, poorly drawn hands, poorly drawn face, mutation, deformed, extra fingers, extra limbs, extra arms, extra legs, malformed limbs, fused fingers, too many fingers, long neck, cross-eyed, mutated hands, polar lowres, bad body, bad proportions, gross proportions, text, error, missing fingers, missing arms, missing legs--  reverse反向</t>
+  </si>
+  <si>
+    <t>**xwwTable identifier usage表格标识符用法</t>
+  </si>
+  <si>
+    <t>tags.xlsx</t>
+  </si>
+  <si>
+    <t>包含* *xww&amp;&amp;xww表示分类选项卡</t>
+  </si>
+  <si>
+    <t>&amp;&amp;xwwInclude * *xww for the sort TAB</t>
+  </si>
+  <si>
+    <t>&amp;&amp;xww包含# #xww表示添加分割线</t>
+  </si>
+  <si>
+    <t>&amp;&amp;xwwInclude # #xww to add dividers</t>
+  </si>
+  <si>
+    <t>&amp;&amp;xww包含&amp; &amp;xww无点击效果</t>
+  </si>
+  <si>
+    <t>&amp;&amp;xwwInclude &amp; &amp;xww without clicking effect</t>
   </si>
 </sst>
 </file>
@@ -10858,7 +10882,7 @@
   <sheetPr/>
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -16689,13 +16713,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -16723,9 +16747,13 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
+    <row r="1" s="1" customFormat="1" ht="81" spans="1:23">
+      <c r="A1" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3273</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
@@ -16747,6 +16775,36 @@
       <c r="U1" s="2"/>
       <c r="V1" s="3"/>
       <c r="W1" s="2"/>
+    </row>
+    <row r="2" ht="54" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="7" ht="81" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>3279</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23730,14 +23788,12 @@
       <c r="C3" s="2" t="s">
         <v>3263</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>3264</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3265</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
         <v>3266</v>
       </c>
@@ -23778,7 +23834,6 @@
       <c r="E9" s="2" t="s">
         <v>3269</v>
       </c>
-      <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
         <v>3270</v>
       </c>
